--- a/src/main/resources/pruebas.xlsx
+++ b/src/main/resources/pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CARLOS\Repos\sophos\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F612AE-592D-4850-B467-5046B9DAF840}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B7E8F2-0A46-427A-9D01-EAED16F2B554}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{1C43C05B-396E-4EB2-8849-91BEEBA1E7EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Daniela</t>
   </si>
@@ -37,6 +37,51 @@
   </si>
   <si>
     <t>Sales</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Cortes</t>
+  </si>
+  <si>
+    <t>carlos@prueba.com</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>rosa@prueba.com</t>
+  </si>
+  <si>
+    <t>Logistic</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Carmona</t>
+  </si>
+  <si>
+    <t>marina@prueba.com</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Serna</t>
+  </si>
+  <si>
+    <t>alejandro@prueba.com</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
   </si>
 </sst>
 </file>
@@ -390,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38157A51-F9AF-4BC0-BE87-FF9550A16F7F}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,15 +460,99 @@
         <v>28</v>
       </c>
       <c r="E1" s="2">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>35000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>32000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>31000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>33000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{B3612D48-11FA-4EB5-B9E1-1C8A17719F17}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{5ED0B513-D8BB-49EE-9CC5-F1250435DE44}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{E6F24661-FD3D-4F59-A210-04C56A1D0E1D}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{35D5469F-4970-4B59-B9C0-1D86F70FB266}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{5920FFA8-6162-4793-8DB5-58ACF9704D7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
